--- a/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau03.xlsx
+++ b/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau03.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SourceTree\PhanCongGiangDay\PhanCongGiangDay\PhanCongGiangDay\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="195" yWindow="555" windowWidth="18885" windowHeight="6735"/>
   </bookViews>
   <sheets>
-    <sheet name="Mẫu  2" sheetId="4" r:id="rId1"/>
+    <sheet name="Mẫu  3" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mẫu  2'!$A$14:$AA$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  2'!$A$1:$R$102</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mẫu  2'!$10:$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mẫu  3'!$A$14:$AA$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  3'!$A$1:$R$102</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mẫu  3'!$10:$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -513,155 +513,155 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1124,1802 +1124,1811 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5" style="3" customWidth="1"/>
-    <col min="10" max="13" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="7" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="24" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5" style="2" customWidth="1"/>
+    <col min="10" max="13" width="4.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="N4" s="9" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="N4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="6" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="46"/>
+      <c r="J10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="12" t="s">
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="12" t="s">
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="12" t="s">
+    <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="13">
-        <v>2</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="17"/>
-    </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22" t="s">
+      <c r="J11" s="44">
+        <v>1</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="44">
+        <v>2</v>
+      </c>
+      <c r="M11" s="46"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22" t="s">
+      <c r="N12" s="43"/>
+      <c r="O12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>1</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="Q12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>1</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="24">
         <v>841301</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="24">
         <v>4</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="24">
         <v>60</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24">
         <f>E13+F13/2</f>
         <v>60</v>
       </c>
-      <c r="H13" s="25">
-        <v>1</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25">
-        <v>1</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25">
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
         <f>E13*H13+G13*I13</f>
         <v>60</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="11">
         <v>11052</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25">
-        <v>1</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25">
-        <v>1</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25">
+    <row r="14" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
         <v>60</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="11">
         <v>10936</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="P14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="28"/>
-    </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="25">
-        <v>2</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25">
-        <v>2</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25">
+      <c r="R14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
         <v>120</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="11">
         <v>10873</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="25">
-        <v>1</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25">
-        <v>1</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25">
+      <c r="R15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
         <v>60</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="11">
         <v>11006</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="28"/>
-    </row>
-    <row r="17" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25">
-        <v>1</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25">
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11">
         <v>60</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="11">
         <v>11053</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="28"/>
-    </row>
-    <row r="18" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="25">
-        <v>2</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25">
-        <v>2</v>
-      </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25">
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="11">
+        <v>2</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
+        <v>2</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11">
         <v>120</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="11">
         <v>10935</v>
       </c>
-      <c r="P18" s="25" t="s">
+      <c r="P18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>2</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="R18" s="52"/>
+    </row>
+    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>2</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="24">
         <v>841101</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="24">
         <v>4</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="24">
         <v>60</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23">
+      <c r="F19" s="24"/>
+      <c r="G19" s="24">
         <f>E19+F19/2</f>
         <v>60</v>
       </c>
-      <c r="H19" s="25">
-        <v>2</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25">
-        <v>2</v>
-      </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25">
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>2</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11">
         <v>120</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="13">
         <v>10986</v>
       </c>
-      <c r="P19" s="32" t="s">
+      <c r="P19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="24" t="s">
+      <c r="R19" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="25">
-        <v>2</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25">
-        <v>2</v>
-      </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25">
+    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="11">
+        <v>2</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <v>2</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
         <v>120</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="13">
         <v>10932</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="28"/>
-    </row>
-    <row r="21" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="25">
-        <v>2</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25">
-        <v>2</v>
-      </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25">
+      <c r="R20" s="51"/>
+    </row>
+    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
+        <v>2</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11">
         <v>120</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="13">
         <v>11053</v>
       </c>
-      <c r="P21" s="32" t="s">
+      <c r="P21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="28"/>
-    </row>
-    <row r="22" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="25">
-        <v>2</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25">
-        <v>2</v>
-      </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25">
+      <c r="R21" s="51"/>
+    </row>
+    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="11">
+        <v>2</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
+        <v>2</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
         <v>120</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="13">
         <v>11051</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R22" s="30"/>
-    </row>
-    <row r="23" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="R22" s="52"/>
+    </row>
+    <row r="23" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>3</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="11">
         <v>841109</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="11">
         <v>4</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="11">
         <v>45</v>
       </c>
-      <c r="F23" s="25">
-        <v>30</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="F23" s="11">
+        <v>30</v>
+      </c>
+      <c r="G23" s="11">
         <f>E23+F23/2</f>
         <v>60</v>
       </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25">
-        <v>1</v>
-      </c>
-      <c r="J23" s="25">
-        <v>1</v>
-      </c>
-      <c r="K23" s="25">
-        <v>1</v>
-      </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25">
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
         <f>E23*H23+F23*I23/2</f>
         <v>60</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="11">
         <v>10875</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>4</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="13">
         <v>841021</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="13">
         <v>3</v>
       </c>
-      <c r="E24" s="31">
-        <v>30</v>
-      </c>
-      <c r="F24" s="31">
-        <v>30</v>
-      </c>
-      <c r="G24" s="31">
+      <c r="E24" s="13">
+        <v>30</v>
+      </c>
+      <c r="F24" s="13">
+        <v>30</v>
+      </c>
+      <c r="G24" s="13">
         <f t="shared" ref="G24:G46" si="0">E24+F24/2</f>
         <v>45</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="13">
         <v>3</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="13">
         <v>3</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="13">
         <v>3</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="13">
         <v>3</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13">
         <f t="shared" ref="N24:N46" si="1">E24*H24+F24*I24/2</f>
         <v>135</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="13">
         <v>10015</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="31" t="s">
+      <c r="Q24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="34" t="s">
+      <c r="R24" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="26" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+    <row r="25" spans="1:18" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>5</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="13">
         <v>841104</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="13">
         <v>4</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="13">
         <v>45</v>
       </c>
-      <c r="F25" s="31">
-        <v>30</v>
-      </c>
-      <c r="G25" s="31">
+      <c r="F25" s="13">
+        <v>30</v>
+      </c>
+      <c r="G25" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="13">
         <v>5</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="13">
         <v>5</v>
       </c>
-      <c r="J25" s="31">
-        <v>2</v>
-      </c>
-      <c r="K25" s="31">
-        <v>2</v>
-      </c>
-      <c r="L25" s="31">
+      <c r="J25" s="13">
+        <v>2</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2</v>
+      </c>
+      <c r="L25" s="13">
         <v>3</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="13">
         <v>3</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="13">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="13">
         <v>10094</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="P25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" s="31" t="s">
+      <c r="Q25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="34" t="s">
+      <c r="R25" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+    <row r="26" spans="1:18" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>6</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="13">
         <v>841117</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="13">
         <v>3</v>
       </c>
-      <c r="E26" s="31">
-        <v>30</v>
-      </c>
-      <c r="F26" s="31">
-        <v>30</v>
-      </c>
-      <c r="G26" s="31">
+      <c r="E26" s="13">
+        <v>30</v>
+      </c>
+      <c r="F26" s="13">
+        <v>30</v>
+      </c>
+      <c r="G26" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H26" s="31">
-        <v>1</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31">
-        <v>1</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31">
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26" s="27">
         <v>10944</v>
       </c>
-      <c r="P26" s="35" t="s">
+      <c r="P26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" s="35" t="s">
+      <c r="Q26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R26" s="36" t="s">
+      <c r="R26" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>7</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="13">
         <v>841119</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="13">
         <v>3</v>
       </c>
-      <c r="E27" s="31">
-        <v>30</v>
-      </c>
-      <c r="F27" s="31">
-        <v>30</v>
-      </c>
-      <c r="G27" s="31">
+      <c r="E27" s="13">
+        <v>30</v>
+      </c>
+      <c r="F27" s="13">
+        <v>30</v>
+      </c>
+      <c r="G27" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H27" s="31">
-        <v>2</v>
-      </c>
-      <c r="I27" s="31">
-        <v>2</v>
-      </c>
-      <c r="J27" s="31">
-        <v>1</v>
-      </c>
-      <c r="K27" s="31">
-        <v>1</v>
-      </c>
-      <c r="L27" s="31">
-        <v>1</v>
-      </c>
-      <c r="M27" s="31">
-        <v>1</v>
-      </c>
-      <c r="N27" s="31">
+      <c r="H27" s="13">
+        <v>2</v>
+      </c>
+      <c r="I27" s="13">
+        <v>2</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1</v>
+      </c>
+      <c r="N27" s="13">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="38"/>
-    </row>
-    <row r="28" spans="1:18" s="26" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="1:18" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>8</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="13">
         <v>841104</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="13">
         <v>4</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="13">
         <v>45</v>
       </c>
-      <c r="F28" s="31">
-        <v>30</v>
-      </c>
-      <c r="G28" s="31">
+      <c r="F28" s="13">
+        <v>30</v>
+      </c>
+      <c r="G28" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="13">
         <v>3</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="13">
         <v>3</v>
       </c>
-      <c r="J28" s="31">
-        <v>1</v>
-      </c>
-      <c r="K28" s="31">
-        <v>1</v>
-      </c>
-      <c r="L28" s="31">
-        <v>2</v>
-      </c>
-      <c r="M28" s="31">
-        <v>2</v>
-      </c>
-      <c r="N28" s="31">
+      <c r="J28" s="13">
+        <v>1</v>
+      </c>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <v>2</v>
+      </c>
+      <c r="M28" s="13">
+        <v>2</v>
+      </c>
+      <c r="N28" s="13">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="1:18" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="32"/>
+    </row>
+    <row r="29" spans="1:18" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>9</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="18">
         <v>841107</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="18">
         <v>4</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="18">
         <v>45</v>
       </c>
-      <c r="F29" s="43">
-        <v>30</v>
-      </c>
-      <c r="G29" s="43">
+      <c r="F29" s="18">
+        <v>30</v>
+      </c>
+      <c r="G29" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43">
-        <v>1</v>
-      </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43">
-        <v>1</v>
-      </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43">
+      <c r="H29" s="18"/>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="O29" s="43">
+      <c r="O29" s="18">
         <v>10063</v>
       </c>
-      <c r="P29" s="43" t="s">
+      <c r="P29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Q29" s="43" t="s">
+      <c r="Q29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="42" t="s">
+      <c r="R29" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="42" t="s">
+    <row r="30" spans="1:18" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="18">
         <v>841107</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="18">
         <v>4</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="18">
         <v>45</v>
       </c>
-      <c r="F30" s="43">
-        <v>30</v>
-      </c>
-      <c r="G30" s="43">
+      <c r="F30" s="18">
+        <v>30</v>
+      </c>
+      <c r="G30" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43">
-        <v>2</v>
-      </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43">
-        <v>2</v>
-      </c>
-      <c r="N30" s="43">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18">
+        <v>2</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18">
+        <v>2</v>
+      </c>
+      <c r="N30" s="18">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="18">
         <v>10063</v>
       </c>
-      <c r="P30" s="43" t="s">
+      <c r="P30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Q30" s="43" t="s">
+      <c r="Q30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R30" s="42" t="s">
+      <c r="R30" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+    <row r="31" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>10</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="13">
         <v>841304</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="13">
         <v>3</v>
       </c>
-      <c r="E31" s="31">
-        <v>30</v>
-      </c>
-      <c r="F31" s="31">
-        <v>30</v>
-      </c>
-      <c r="G31" s="31">
+      <c r="E31" s="13">
+        <v>30</v>
+      </c>
+      <c r="F31" s="13">
+        <v>30</v>
+      </c>
+      <c r="G31" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H31" s="31">
-        <v>2</v>
-      </c>
-      <c r="I31" s="31">
-        <v>2</v>
-      </c>
-      <c r="J31" s="31">
-        <v>2</v>
-      </c>
-      <c r="K31" s="31">
-        <v>2</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31">
+      <c r="H31" s="13">
+        <v>2</v>
+      </c>
+      <c r="I31" s="13">
+        <v>2</v>
+      </c>
+      <c r="J31" s="13">
+        <v>2</v>
+      </c>
+      <c r="K31" s="13">
+        <v>2</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="27">
         <v>10223</v>
       </c>
-      <c r="P31" s="35" t="s">
+      <c r="P31" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="Q31" s="35" t="s">
+      <c r="Q31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="36" t="s">
+      <c r="R31" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+    <row r="32" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>11</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="13">
         <v>841067</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="13">
         <v>3</v>
       </c>
-      <c r="E32" s="31">
-        <v>30</v>
-      </c>
-      <c r="F32" s="31">
-        <v>30</v>
-      </c>
-      <c r="G32" s="31">
+      <c r="E32" s="13">
+        <v>30</v>
+      </c>
+      <c r="F32" s="13">
+        <v>30</v>
+      </c>
+      <c r="G32" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H32" s="31">
-        <v>1</v>
-      </c>
-      <c r="I32" s="31">
-        <v>1</v>
-      </c>
-      <c r="J32" s="31">
-        <v>1</v>
-      </c>
-      <c r="K32" s="31">
-        <v>1</v>
-      </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31">
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <v>1</v>
+      </c>
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="38"/>
-    </row>
-    <row r="33" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>12</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="13">
         <v>841046</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="13">
         <v>3</v>
       </c>
-      <c r="E33" s="31">
-        <v>30</v>
-      </c>
-      <c r="F33" s="31">
-        <v>30</v>
-      </c>
-      <c r="G33" s="31">
+      <c r="E33" s="13">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13">
+        <v>30</v>
+      </c>
+      <c r="G33" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="13">
         <v>4</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31">
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13">
         <v>4</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31">
+      <c r="M33" s="13"/>
+      <c r="N33" s="13">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="38"/>
-    </row>
-    <row r="34" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="31"/>
+    </row>
+    <row r="34" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>13</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="13">
         <v>841067</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="13">
         <v>3</v>
       </c>
-      <c r="E34" s="31">
-        <v>30</v>
-      </c>
-      <c r="F34" s="31">
-        <v>30</v>
-      </c>
-      <c r="G34" s="31">
+      <c r="E34" s="13">
+        <v>30</v>
+      </c>
+      <c r="F34" s="13">
+        <v>30</v>
+      </c>
+      <c r="G34" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H34" s="31">
-        <v>1</v>
-      </c>
-      <c r="I34" s="31">
-        <v>1</v>
-      </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31">
-        <v>1</v>
-      </c>
-      <c r="M34" s="31">
-        <v>1</v>
-      </c>
-      <c r="N34" s="31">
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13">
+        <v>1</v>
+      </c>
+      <c r="M34" s="13">
+        <v>1</v>
+      </c>
+      <c r="N34" s="13">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18" s="26" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="32"/>
+    </row>
+    <row r="35" spans="1:18" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>14</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="11">
         <v>841048</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="11">
         <v>4</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="11">
         <v>45</v>
       </c>
-      <c r="F35" s="25">
-        <v>30</v>
-      </c>
-      <c r="G35" s="25">
+      <c r="F35" s="11">
+        <v>30</v>
+      </c>
+      <c r="G35" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H35" s="25">
-        <v>1</v>
-      </c>
-      <c r="I35" s="25">
-        <v>1</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25">
-        <v>1</v>
-      </c>
-      <c r="M35" s="25">
-        <v>1</v>
-      </c>
-      <c r="N35" s="25">
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11">
+        <v>1</v>
+      </c>
+      <c r="M35" s="11">
+        <v>1</v>
+      </c>
+      <c r="N35" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="P35" s="25" t="s">
+      <c r="P35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R35" s="33" t="s">
+      <c r="R35" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+    <row r="36" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
         <v>15</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="20">
         <v>841052</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="20">
         <v>3</v>
       </c>
-      <c r="E36" s="47">
-        <v>30</v>
-      </c>
-      <c r="F36" s="47">
-        <v>30</v>
-      </c>
-      <c r="G36" s="47">
+      <c r="E36" s="20">
+        <v>30</v>
+      </c>
+      <c r="F36" s="20">
+        <v>30</v>
+      </c>
+      <c r="G36" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="20">
         <v>3</v>
       </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47">
+      <c r="I36" s="20"/>
+      <c r="J36" s="20">
         <v>3</v>
       </c>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47">
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O36" s="45">
+      <c r="O36" s="36">
         <v>10220</v>
       </c>
-      <c r="P36" s="45" t="s">
+      <c r="P36" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="Q36" s="45" t="s">
+      <c r="Q36" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="48" t="s">
+      <c r="R36" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="46" t="s">
+    <row r="37" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="20">
         <v>841046</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="20">
         <v>3</v>
       </c>
-      <c r="E37" s="47">
-        <v>30</v>
-      </c>
-      <c r="F37" s="47">
-        <v>30</v>
-      </c>
-      <c r="G37" s="47">
+      <c r="E37" s="20">
+        <v>30</v>
+      </c>
+      <c r="F37" s="20">
+        <v>30</v>
+      </c>
+      <c r="G37" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H37" s="47">
-        <v>2</v>
-      </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47">
-        <v>2</v>
-      </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47">
+      <c r="H37" s="20">
+        <v>2</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20">
+        <v>2</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="50"/>
-    </row>
-    <row r="38" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="46" t="s">
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="20">
         <v>841111</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="20">
         <v>4</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="20">
         <v>45</v>
       </c>
-      <c r="F38" s="47">
-        <v>30</v>
-      </c>
-      <c r="G38" s="47">
+      <c r="F38" s="20">
+        <v>30</v>
+      </c>
+      <c r="G38" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H38" s="47">
-        <v>2</v>
-      </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47">
-        <v>2</v>
-      </c>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47">
+      <c r="H38" s="20">
+        <v>2</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20">
+        <v>2</v>
+      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="50"/>
-    </row>
-    <row r="39" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="46" t="s">
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="22"/>
+    </row>
+    <row r="39" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="20">
         <v>841114</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="20">
         <v>3</v>
       </c>
-      <c r="E39" s="47">
-        <v>30</v>
-      </c>
-      <c r="F39" s="47">
-        <v>30</v>
-      </c>
-      <c r="G39" s="47">
+      <c r="E39" s="20">
+        <v>30</v>
+      </c>
+      <c r="F39" s="20">
+        <v>30</v>
+      </c>
+      <c r="G39" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H39" s="47">
-        <v>2</v>
-      </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47">
-        <v>2</v>
-      </c>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47">
+      <c r="H39" s="20">
+        <v>2</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20">
+        <v>2</v>
+      </c>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="52"/>
-    </row>
-    <row r="40" spans="1:18" s="26" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45">
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="23"/>
+    </row>
+    <row r="40" spans="1:18" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
         <v>16</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="20">
         <v>841111</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="20">
         <v>4</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="20">
         <v>45</v>
       </c>
-      <c r="F40" s="47">
-        <v>30</v>
-      </c>
-      <c r="G40" s="47">
+      <c r="F40" s="20">
+        <v>30</v>
+      </c>
+      <c r="G40" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47">
-        <v>2</v>
-      </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47">
-        <v>2</v>
-      </c>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20">
+        <v>2</v>
+      </c>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20">
+        <v>2</v>
+      </c>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O40" s="45">
+      <c r="O40" s="36">
         <v>10011</v>
       </c>
-      <c r="P40" s="45" t="s">
+      <c r="P40" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q40" s="45" t="s">
+      <c r="Q40" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="R40" s="48" t="s">
+      <c r="R40" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="46" t="s">
+    <row r="41" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="20">
         <v>841052</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="20">
         <v>3</v>
       </c>
-      <c r="E41" s="47">
-        <v>30</v>
-      </c>
-      <c r="F41" s="47">
-        <v>30</v>
-      </c>
-      <c r="G41" s="47">
+      <c r="E41" s="20">
+        <v>30</v>
+      </c>
+      <c r="F41" s="20">
+        <v>30</v>
+      </c>
+      <c r="G41" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20">
         <v>3</v>
       </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47">
+      <c r="J41" s="20"/>
+      <c r="K41" s="20">
         <v>3</v>
       </c>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47">
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="50"/>
-    </row>
-    <row r="42" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="46" t="s">
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="22"/>
+    </row>
+    <row r="42" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="20">
         <v>841114</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="20">
         <v>3</v>
       </c>
-      <c r="E42" s="47">
-        <v>30</v>
-      </c>
-      <c r="F42" s="47">
-        <v>30</v>
-      </c>
-      <c r="G42" s="47">
+      <c r="E42" s="20">
+        <v>30</v>
+      </c>
+      <c r="F42" s="20">
+        <v>30</v>
+      </c>
+      <c r="G42" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47">
-        <v>2</v>
-      </c>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47">
-        <v>2</v>
-      </c>
-      <c r="N42" s="47">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20">
+        <v>2</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20">
+        <v>2</v>
+      </c>
+      <c r="N42" s="20">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="50"/>
-    </row>
-    <row r="43" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="46" t="s">
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="22"/>
+    </row>
+    <row r="43" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="20">
         <v>841046</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="20">
         <v>3</v>
       </c>
-      <c r="E43" s="47">
-        <v>30</v>
-      </c>
-      <c r="F43" s="47">
-        <v>30</v>
-      </c>
-      <c r="G43" s="47">
+      <c r="E43" s="20">
+        <v>30</v>
+      </c>
+      <c r="F43" s="20">
+        <v>30</v>
+      </c>
+      <c r="G43" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47">
-        <v>2</v>
-      </c>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47">
-        <v>2</v>
-      </c>
-      <c r="N43" s="47">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20">
+        <v>2</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20">
+        <v>2</v>
+      </c>
+      <c r="N43" s="20">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="52"/>
-    </row>
-    <row r="44" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="23"/>
+    </row>
+    <row r="44" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
         <v>17</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="13">
         <v>841071</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="13">
         <v>3</v>
       </c>
-      <c r="E44" s="31">
-        <v>30</v>
-      </c>
-      <c r="F44" s="31">
-        <v>30</v>
-      </c>
-      <c r="G44" s="31">
+      <c r="E44" s="13">
+        <v>30</v>
+      </c>
+      <c r="F44" s="13">
+        <v>30</v>
+      </c>
+      <c r="G44" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H44" s="31">
-        <v>2</v>
-      </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31">
-        <v>2</v>
-      </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31">
+      <c r="H44" s="13">
+        <v>2</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13">
+        <v>2</v>
+      </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="O44" s="35">
+      <c r="O44" s="27">
         <v>10601</v>
       </c>
-      <c r="P44" s="35" t="s">
+      <c r="P44" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="35" t="s">
+      <c r="Q44" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="R44" s="36" t="s">
+      <c r="R44" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="34" t="s">
+    <row r="45" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="13">
         <v>841114</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="13">
         <v>3</v>
       </c>
-      <c r="E45" s="31">
-        <v>30</v>
-      </c>
-      <c r="F45" s="31">
-        <v>30</v>
-      </c>
-      <c r="G45" s="31">
+      <c r="E45" s="13">
+        <v>30</v>
+      </c>
+      <c r="F45" s="13">
+        <v>30</v>
+      </c>
+      <c r="G45" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H45" s="31">
-        <v>1</v>
-      </c>
-      <c r="I45" s="31">
-        <v>1</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31">
-        <v>1</v>
-      </c>
-      <c r="M45" s="31">
-        <v>1</v>
-      </c>
-      <c r="N45" s="31">
+      <c r="H45" s="13">
+        <v>1</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1</v>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13">
+        <v>1</v>
+      </c>
+      <c r="M45" s="13">
+        <v>1</v>
+      </c>
+      <c r="N45" s="13">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="38"/>
-    </row>
-    <row r="46" spans="1:18" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="34" t="s">
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="31"/>
+    </row>
+    <row r="46" spans="1:18" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="13">
         <v>841072</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="13">
         <v>3</v>
       </c>
-      <c r="E46" s="31">
-        <v>30</v>
-      </c>
-      <c r="F46" s="31">
-        <v>30</v>
-      </c>
-      <c r="G46" s="31">
+      <c r="E46" s="13">
+        <v>30</v>
+      </c>
+      <c r="F46" s="13">
+        <v>30</v>
+      </c>
+      <c r="G46" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H46" s="31">
-        <v>2</v>
-      </c>
-      <c r="I46" s="31">
-        <v>2</v>
-      </c>
-      <c r="J46" s="31">
-        <v>2</v>
-      </c>
-      <c r="K46" s="31">
-        <v>2</v>
-      </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31">
+      <c r="H46" s="13">
+        <v>2</v>
+      </c>
+      <c r="I46" s="13">
+        <v>2</v>
+      </c>
+      <c r="J46" s="13">
+        <v>2</v>
+      </c>
+      <c r="K46" s="13">
+        <v>2</v>
+      </c>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="40"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="32"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="R31:R34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="R13:R18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="N4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:R8"/>
@@ -2936,37 +2945,28 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="R13:R18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="R31:R34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
     <mergeCell ref="O26:O28"/>
     <mergeCell ref="P26:P28"/>
     <mergeCell ref="A40:A43"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
     <mergeCell ref="O40:O43"/>
     <mergeCell ref="P40:P43"/>
     <mergeCell ref="Q40:Q43"/>

--- a/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau03.xlsx
+++ b/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau03.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mẫu  3'!$A$14:$AA$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  3'!$A$1:$R$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  3'!$A$1:$R$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mẫu  3'!$10:$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -276,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +309,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,32 +345,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -857,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -881,227 +887,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15" t="s">
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15" t="s">
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="21">
         <v>1</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="12">
+      <c r="K11" s="23"/>
+      <c r="L11" s="21">
         <v>2</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="16"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="16"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="10" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1120,7 @@
       <c r="M12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="17"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="10" t="s">
         <v>5</v>
       </c>
@@ -1124,747 +1130,1090 @@
       <c r="Q12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="17"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
     </row>
     <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
     </row>
     <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
     </row>
     <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-    </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-    </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+    </row>
+    <row r="25" spans="1:18" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+    </row>
+    <row r="26" spans="1:18" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
     </row>
     <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
     </row>
     <row r="28" spans="1:18" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
     </row>
     <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
     </row>
     <row r="30" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
     </row>
     <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
     </row>
     <row r="32" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
     </row>
     <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
     </row>
     <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
     </row>
     <row r="35" spans="1:18" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
     </row>
     <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
     </row>
     <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
     </row>
     <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
     </row>
     <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
     </row>
     <row r="40" spans="1:18" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
     </row>
     <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
     </row>
     <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
     </row>
     <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
     </row>
     <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
     </row>
     <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
     </row>
     <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="25"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="25"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="25"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="25"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="25"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="25"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="25"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="25"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="25"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="25"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="25"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="25"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="25"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="25"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="25"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="25"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="N3:R3"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="N3:R3"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
@@ -1875,17 +2224,11 @@
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.51181102362204722" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="28" max="16383" man="1"/>
+    <brk id="26" max="17" man="1"/>
     <brk id="44" max="17" man="1"/>
     <brk id="65" max="16383" man="1"/>
     <brk id="86" max="16383" man="1"/>

--- a/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau03.xlsx
+++ b/PhanCongGiangDay/PhanCongGiangDay/Templates/Mau03.xlsx
@@ -16,8 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mẫu  3'!$A$14:$AA$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  3'!$A$1:$R$64</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Mẫu  3'!$10:$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mẫu  3'!$A$1:$R$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -765,10 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2133,7 @@
     <mergeCell ref="O10:Q10"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="3" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="26" max="17" man="1"/>
     <brk id="44" max="17" man="1"/>
